--- a/models3/筛查重构+分类_excels2/筛查重构+分类-67.xlsx
+++ b/models3/筛查重构+分类_excels2/筛查重构+分类-67.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PyCharm 2022.2.1\pythonProject\NIRModel\models3\筛查重构+分类_excels2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC6E12C-C128-41CB-B88E-4436C1544960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EAFE52-3150-450C-BD74-4A6FB3836ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -763,10 +763,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>6.9592404179275036E-3</v>
+        <v>1.260044427908724E-5</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -777,24 +777,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B3">
-        <v>0.99671763181686401</v>
+        <v>3.7256599171087153E-5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.21524855494499209</v>
+        <v>5.2554452850017697E-5</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -805,10 +805,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="B5">
-        <v>2.0287377992644909E-4</v>
+        <v>5.9141340898349881E-5</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -819,10 +819,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="B6">
-        <v>1.8854775407817209E-4</v>
+        <v>6.6024687839671969E-5</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="B7">
-        <v>1.260044427908724E-5</v>
+        <v>8.3923980128020048E-5</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -847,108 +847,108 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B8">
-        <v>5.2554452850017697E-5</v>
+        <v>1.35368260089308E-4</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="B9">
-        <v>7.1975588798522949E-4</v>
+        <v>1.5953452384565031E-4</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>0.99998998641967773</v>
+        <v>1.8854775407817209E-4</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B11">
-        <v>0.84962105751037598</v>
+        <v>1.8860744603443891E-4</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>0.30365866422653198</v>
+        <v>1.9667953893076631E-4</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="B13">
-        <v>9.8224140703678131E-2</v>
+        <v>1.9747969054151329E-4</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>0.99070930480957031</v>
+        <v>2.0287377992644909E-4</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B15">
-        <v>4.0222007781267173E-2</v>
+        <v>2.5610285229049618E-4</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -959,24 +959,24 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B16">
-        <v>0.84642487764358521</v>
+        <v>2.9551133047789341E-4</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B17">
-        <v>4.1378021240234382E-2</v>
+        <v>3.1874104752205312E-4</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -987,13 +987,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="B18">
-        <v>0.59147202968597412</v>
+        <v>5.0282920710742474E-4</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="B19">
-        <v>6.2792892567813396E-3</v>
+        <v>5.1815109327435493E-4</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1015,24 +1015,24 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="B20">
-        <v>0.2113608121871948</v>
+        <v>6.0130929341539741E-4</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>3.4839189611375332E-3</v>
+        <v>7.1975588798522949E-4</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1043,13 +1043,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.99582481384277344</v>
+        <v>8.7111536413431168E-4</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="B23">
-        <v>0.98905652761459351</v>
+        <v>8.8793737813830376E-4</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1071,24 +1071,24 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B24">
-        <v>8.7111536413431168E-4</v>
+        <v>1.166540198028088E-3</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="B25">
-        <v>2.9551133047789341E-4</v>
+        <v>1.754828146658838E-3</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1099,24 +1099,24 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="B26">
-        <v>1.9667953893076631E-4</v>
+        <v>1.9460725598037241E-3</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="B27">
-        <v>1.35368260089308E-4</v>
+        <v>2.9513020999729629E-3</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1127,10 +1127,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B28">
-        <v>0.39700335264205933</v>
+        <v>3.2226850744336839E-3</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1141,38 +1141,38 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="B29">
-        <v>0.999969482421875</v>
+        <v>3.3297354821115728E-3</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B30">
-        <v>0.62691885232925415</v>
+        <v>3.4427598584443331E-3</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B31">
-        <v>3.1874104752205312E-4</v>
+        <v>3.4839189611375332E-3</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1183,24 +1183,24 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B32">
-        <v>0.96838366985321045</v>
+        <v>3.858784213662148E-3</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="B33">
-        <v>3.7256599171087153E-5</v>
+        <v>4.1664242744445801E-3</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1211,55 +1211,55 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B34">
-        <v>0.97859984636306763</v>
+        <v>4.185039084404707E-3</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B35">
-        <v>0.99870789051055908</v>
+        <v>6.2792892567813396E-3</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B36">
-        <v>0.99827837944030762</v>
+        <v>6.9592404179275036E-3</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B37">
-        <v>0.98298603296279907</v>
+        <v>8.9055858552455902E-3</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1267,10 +1267,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B38">
-        <v>1.8860744603443891E-4</v>
+        <v>1.0651832446455961E-2</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1281,80 +1281,80 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B39">
-        <v>0.38186448812484741</v>
+        <v>1.8154509365558621E-2</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="B40">
-        <v>0.9997292160987854</v>
+        <v>2.1349450573325161E-2</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B41">
-        <v>0.1085846945643425</v>
+        <v>2.440518140792847E-2</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="B42">
-        <v>0.95814990997314453</v>
+        <v>2.5312598794698719E-2</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>2.5610285229049618E-4</v>
+        <v>2.598194032907486E-2</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="B44">
-        <v>0.47738319635391241</v>
+        <v>2.9944859445095059E-2</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B45">
-        <v>0.56098240613937378</v>
+        <v>3.3052548766136169E-2</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1379,13 +1379,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B46">
-        <v>0.99886500835418701</v>
+        <v>4.0222007781267173E-2</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1393,27 +1393,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B47">
-        <v>2.598194032907486E-2</v>
+        <v>4.1378021240234382E-2</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B48">
-        <v>0.99472683668136597</v>
+        <v>4.5910995453596122E-2</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1421,24 +1421,24 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0.95157927274703979</v>
+        <v>6.4084261655807495E-2</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B50">
-        <v>3.4427598584443331E-3</v>
+        <v>6.7186646163463593E-2</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1449,10 +1449,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B51">
-        <v>0.26445260643959051</v>
+        <v>9.8224140703678131E-2</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1463,16 +1463,16 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B52">
-        <v>0.54234033823013306</v>
+        <v>0.1085846945643425</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1491,10 +1491,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B54">
-        <v>6.4084261655807495E-2</v>
+        <v>0.2113608121871948</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1505,38 +1505,38 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="B55">
-        <v>0.99978941679000854</v>
+        <v>0.21524855494499209</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B56">
-        <v>0.99996912479400635</v>
+        <v>0.22245016694068909</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B57">
-        <v>0.36353778839111328</v>
+        <v>0.26445260643959051</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1547,80 +1547,80 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B58">
-        <v>2.440518140792847E-2</v>
+        <v>0.30365866422653198</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B59">
-        <v>3.858784213662148E-3</v>
+        <v>0.35325366258621221</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>3.3052548766136169E-2</v>
+        <v>0.36353778839111328</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B61">
-        <v>1.8154509365558621E-2</v>
+        <v>0.38186448812484741</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B62">
-        <v>8.9055858552455902E-3</v>
+        <v>0.39700335264205933</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="B63">
-        <v>3.2226850744336839E-3</v>
+        <v>0.4456077516078949</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1631,38 +1631,38 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B64">
-        <v>0.52912390232086182</v>
+        <v>0.577383196353912</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.22245016694068909</v>
+        <v>0.42912390232086201</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B66">
-        <v>0.8199802041053772</v>
+        <v>0.54234033823013306</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1673,27 +1673,27 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B67">
-        <v>4.185039084404707E-3</v>
+        <v>0.56098240613937378</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="B68">
-        <v>1.166540198028088E-3</v>
+        <v>0.56842762231826782</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1701,55 +1701,55 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="B69">
-        <v>8.3923980128020048E-5</v>
+        <v>0.59147202968597412</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B70">
-        <v>1.0651832446455961E-2</v>
+        <v>0.61015832424163818</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B71">
-        <v>0.7265174388885498</v>
+        <v>0.62691885232925415</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>1.754828146658838E-3</v>
+        <v>0.7265174388885498</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1757,27 +1757,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="B73">
-        <v>0.90149891376495361</v>
+        <v>0.74544864892959595</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B74">
-        <v>4.5910995453596122E-2</v>
+        <v>0.7725566029548645</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -1785,10 +1785,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.96551936864852905</v>
+        <v>0.79576802253723145</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -1799,24 +1799,24 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B76">
-        <v>0.99549132585525513</v>
+        <v>0.8199802041053772</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B77">
-        <v>0.79576802253723145</v>
+        <v>0.84642487764358521</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1827,24 +1827,24 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="B78">
-        <v>0.98321759700775146</v>
+        <v>0.84962105751037598</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B79">
-        <v>0.96871715784072876</v>
+        <v>0.86565613746643066</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -1855,38 +1855,38 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B80">
-        <v>4.1664242744445801E-3</v>
+        <v>0.87857067584991455</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B81">
-        <v>0.97608870267868042</v>
+        <v>0.90149891376495361</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B82">
-        <v>0.99460560083389282</v>
+        <v>0.93278145790100098</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -1897,24 +1897,24 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="B83">
-        <v>1.9460725598037241E-3</v>
+        <v>0.95157927274703979</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B84">
-        <v>0.96045291423797607</v>
+        <v>0.95814990997314453</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -1925,27 +1925,27 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.9991341233253479</v>
+        <v>0.96045291423797607</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B86">
-        <v>2.5312598794698719E-2</v>
+        <v>0.96551936864852905</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -1953,10 +1953,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="B87">
-        <v>0.7725566029548645</v>
+        <v>0.96838366985321045</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B88">
-        <v>0.61015832424163818</v>
+        <v>0.96871715784072876</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -1981,38 +1981,38 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B89">
-        <v>0.99798798561096191</v>
+        <v>0.97608870267868042</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="B90">
-        <v>2.9944859445095059E-2</v>
+        <v>0.97859984636306763</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="B91">
-        <v>0.98570388555526733</v>
+        <v>0.98298603296279907</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -2023,52 +2023,52 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B92">
-        <v>6.0130929341539741E-4</v>
+        <v>0.98321759700775146</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B93">
-        <v>3.3297354821115728E-3</v>
+        <v>0.98570388555526733</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="B94">
-        <v>2.9513020999729629E-3</v>
+        <v>0.98905652761459351</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="B95">
-        <v>0.99984598159790039</v>
+        <v>0.99070930480957031</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -2079,24 +2079,24 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B96">
-        <v>0.86565613746643066</v>
+        <v>0.99460560083389282</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="B97">
-        <v>0.87857067584991455</v>
+        <v>0.99472683668136597</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -2107,13 +2107,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B98">
-        <v>6.7186646163463593E-2</v>
+        <v>0.99549132585525513</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -2121,13 +2121,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="B99">
-        <v>0.35325366258621221</v>
+        <v>0.99582481384277344</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -2135,13 +2135,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="B100">
-        <v>5.0282920710742474E-4</v>
+        <v>0.99671763181686401</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -2149,52 +2149,52 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B101">
-        <v>0.99927133321762085</v>
+        <v>0.99798798561096191</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="B102">
-        <v>8.8793737813830376E-4</v>
+        <v>0.99827837944030762</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="B103">
-        <v>6.6024687839671969E-5</v>
+        <v>0.99870789051055908</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="B104">
-        <v>0.93278145790100098</v>
+        <v>0.99886500835418701</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2205,55 +2205,55 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B105">
-        <v>5.1815109327435493E-4</v>
+        <v>0.9991341233253479</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B106">
-        <v>0.4456077516078949</v>
+        <v>0.99927133321762085</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="B107">
-        <v>2.1349450573325161E-2</v>
+        <v>0.9997292160987854</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="B108">
-        <v>1.5953452384565031E-4</v>
+        <v>0.99978941679000854</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -2261,13 +2261,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B109">
-        <v>1.9747969054151329E-4</v>
+        <v>0.99984598159790039</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -2275,24 +2275,24 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="B110">
-        <v>5.9141340898349881E-5</v>
+        <v>0.99996912479400635</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="B111">
-        <v>0.74544864892959595</v>
+        <v>0.999969482421875</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -2303,19 +2303,22 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="B112">
-        <v>0.56842762231826782</v>
+        <v>0.99998998641967773</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D112">
+    <sortCondition ref="B1:B112"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
